--- a/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
+++ b/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
@@ -51,21 +51,21 @@
     <t>Amon Yo Ass Boy</t>
   </si>
   <si>
+    <t xml:space="preserve">Sh1tting on Laporta potty </t>
+  </si>
+  <si>
     <t>Njigba's in Paris</t>
   </si>
   <si>
-    <t xml:space="preserve">Sh1tting on Laporta potty </t>
-  </si>
-  <si>
     <t>Najee Germany</t>
   </si>
   <si>
+    <t>C. Kirk's revenge</t>
+  </si>
+  <si>
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>C. Kirk's revenge</t>
-  </si>
-  <si>
     <t>8-3</t>
   </si>
   <si>
@@ -75,121 +75,121 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>4-7</t>
+  </si>
+  <si>
     <t>5-6</t>
   </si>
   <si>
-    <t>4-7</t>
+    <t>2-9</t>
   </si>
   <si>
     <t>3-8</t>
   </si>
   <si>
-    <t>2-9</t>
-  </si>
-  <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>95.4%</t>
-  </si>
-  <si>
-    <t>94.4%</t>
-  </si>
-  <si>
-    <t>90.7%</t>
-  </si>
-  <si>
-    <t>52.6%</t>
-  </si>
-  <si>
-    <t>51.1%</t>
-  </si>
-  <si>
-    <t>15.5%</t>
+    <t>94.9%</t>
+  </si>
+  <si>
+    <t>93.9%</t>
+  </si>
+  <si>
+    <t>90.6%</t>
+  </si>
+  <si>
+    <t>53.2%</t>
+  </si>
+  <si>
+    <t>53.1%</t>
+  </si>
+  <si>
+    <t>14.3%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>-1861</t>
+  </si>
+  <si>
+    <t>-1539</t>
+  </si>
+  <si>
+    <t>-964</t>
+  </si>
+  <si>
+    <t>-114</t>
+  </si>
+  <si>
+    <t>-113</t>
+  </si>
+  <si>
+    <t>+599</t>
+  </si>
+  <si>
+    <t>+∞</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>52.0%</t>
+  </si>
+  <si>
+    <t>19.6%</t>
+  </si>
+  <si>
+    <t>14.4%</t>
+  </si>
+  <si>
+    <t>13.6%</t>
   </si>
   <si>
     <t>0.3%</t>
   </si>
   <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-∞</t>
-  </si>
-  <si>
-    <t>-2074</t>
-  </si>
-  <si>
-    <t>-1686</t>
-  </si>
-  <si>
-    <t>-975</t>
-  </si>
-  <si>
-    <t>-111</t>
-  </si>
-  <si>
-    <t>-104</t>
-  </si>
-  <si>
-    <t>+545</t>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-108</t>
+  </si>
+  <si>
+    <t>+410</t>
+  </si>
+  <si>
+    <t>+594</t>
+  </si>
+  <si>
+    <t>+635</t>
   </si>
   <si>
     <t>+33233</t>
   </si>
   <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>50.6%</t>
-  </si>
-  <si>
-    <t>16.7%</t>
-  </si>
-  <si>
-    <t>16.3%</t>
-  </si>
-  <si>
-    <t>16.2%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-102</t>
-  </si>
-  <si>
-    <t>+499</t>
-  </si>
-  <si>
-    <t>+513</t>
-  </si>
-  <si>
-    <t>+517</t>
-  </si>
-  <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>53.5%</t>
-  </si>
-  <si>
-    <t>44.9%</t>
-  </si>
-  <si>
-    <t>1.4%</t>
-  </si>
-  <si>
-    <t>-115</t>
-  </si>
-  <si>
-    <t>+123</t>
-  </si>
-  <si>
-    <t>+7043</t>
+    <t>+99900</t>
+  </si>
+  <si>
+    <t>55.8%</t>
+  </si>
+  <si>
+    <t>42.8%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>-126</t>
+  </si>
+  <si>
+    <t>+134</t>
+  </si>
+  <si>
+    <t>+8233</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -592,7 +592,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -620,7 +620,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -648,7 +648,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -662,7 +662,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -676,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -690,7 +690,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -698,13 +698,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -718,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -729,10 +729,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -770,52 +770,52 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -826,108 +826,108 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -990,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -1007,7 +1007,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -1021,10 +1021,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1035,10 +1035,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1077,10 +1077,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1105,10 +1105,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1119,10 +1119,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
+++ b/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>Record</t>
   </si>
@@ -45,18 +45,18 @@
     <t>Team Daisey</t>
   </si>
   <si>
+    <t>Amon Yo Ass Boy</t>
+  </si>
+  <si>
     <t>Get Money Gang</t>
   </si>
   <si>
-    <t>Amon Yo Ass Boy</t>
+    <t>Njigba's in Paris</t>
   </si>
   <si>
     <t xml:space="preserve">Sh1tting on Laporta potty </t>
   </si>
   <si>
-    <t>Njigba's in Paris</t>
-  </si>
-  <si>
     <t>Najee Germany</t>
   </si>
   <si>
@@ -66,46 +66,52 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>3-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>94.9%</t>
-  </si>
-  <si>
-    <t>93.9%</t>
-  </si>
-  <si>
-    <t>90.6%</t>
-  </si>
-  <si>
-    <t>53.2%</t>
-  </si>
-  <si>
-    <t>53.1%</t>
-  </si>
-  <si>
-    <t>14.3%</t>
+    <t>99.8%</t>
+  </si>
+  <si>
+    <t>99.6%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>79.8%</t>
+  </si>
+  <si>
+    <t>66.6%</t>
+  </si>
+  <si>
+    <t>53.6%</t>
+  </si>
+  <si>
+    <t>4.0%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -114,22 +120,25 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-1861</t>
-  </si>
-  <si>
-    <t>-1539</t>
-  </si>
-  <si>
-    <t>-964</t>
-  </si>
-  <si>
-    <t>-114</t>
-  </si>
-  <si>
-    <t>-113</t>
-  </si>
-  <si>
-    <t>+599</t>
+    <t>-49900</t>
+  </si>
+  <si>
+    <t>-24900</t>
+  </si>
+  <si>
+    <t>-2841</t>
+  </si>
+  <si>
+    <t>-395</t>
+  </si>
+  <si>
+    <t>-199</t>
+  </si>
+  <si>
+    <t>-116</t>
+  </si>
+  <si>
+    <t>+2400</t>
   </si>
   <si>
     <t>+∞</t>
@@ -138,58 +147,46 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>52.0%</t>
-  </si>
-  <si>
-    <t>19.6%</t>
-  </si>
-  <si>
-    <t>14.4%</t>
-  </si>
-  <si>
-    <t>13.6%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-108</t>
-  </si>
-  <si>
-    <t>+410</t>
-  </si>
-  <si>
-    <t>+594</t>
-  </si>
-  <si>
-    <t>+635</t>
-  </si>
-  <si>
-    <t>+33233</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>55.8%</t>
-  </si>
-  <si>
-    <t>42.8%</t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
-    <t>-126</t>
-  </si>
-  <si>
-    <t>+134</t>
-  </si>
-  <si>
-    <t>+8233</t>
+    <t>78.0%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>2.6%</t>
+  </si>
+  <si>
+    <t>1.0%</t>
+  </si>
+  <si>
+    <t>-355</t>
+  </si>
+  <si>
+    <t>+443</t>
+  </si>
+  <si>
+    <t>+3746</t>
+  </si>
+  <si>
+    <t>+9900</t>
+  </si>
+  <si>
+    <t>59.4%</t>
+  </si>
+  <si>
+    <t>40.4%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>-146</t>
+  </si>
+  <si>
+    <t>+148</t>
+  </si>
+  <si>
+    <t>+49900</t>
   </si>
 </sst>
 </file>
@@ -575,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -589,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -600,13 +597,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -614,13 +611,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -631,10 +628,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -645,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -656,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -673,10 +670,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -687,10 +684,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -698,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -712,13 +709,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -726,13 +723,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -770,66 +767,66 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -840,66 +837,66 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -907,13 +904,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -921,13 +918,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -962,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -976,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,139 +987,139 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
+++ b/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
   <si>
     <t>Record</t>
   </si>
@@ -48,12 +48,12 @@
     <t>Amon Yo Ass Boy</t>
   </si>
   <si>
+    <t>Njigba's in Paris</t>
+  </si>
+  <si>
     <t>Get Money Gang</t>
   </si>
   <si>
-    <t>Njigba's in Paris</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sh1tting on Laporta potty </t>
   </si>
   <si>
@@ -66,52 +66,46 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>3-9</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>2-11</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.8%</t>
-  </si>
-  <si>
-    <t>99.6%</t>
-  </si>
-  <si>
-    <t>96.6%</t>
-  </si>
-  <si>
-    <t>79.8%</t>
-  </si>
-  <si>
-    <t>66.6%</t>
-  </si>
-  <si>
-    <t>53.6%</t>
-  </si>
-  <si>
-    <t>4.0%</t>
+    <t>98.7%</t>
+  </si>
+  <si>
+    <t>96.9%</t>
+  </si>
+  <si>
+    <t>87.4%</t>
+  </si>
+  <si>
+    <t>84.4%</t>
+  </si>
+  <si>
+    <t>80.1%</t>
+  </si>
+  <si>
+    <t>52.5%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -120,25 +114,22 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-49900</t>
-  </si>
-  <si>
-    <t>-24900</t>
-  </si>
-  <si>
-    <t>-2841</t>
-  </si>
-  <si>
-    <t>-395</t>
-  </si>
-  <si>
-    <t>-199</t>
-  </si>
-  <si>
-    <t>-116</t>
-  </si>
-  <si>
-    <t>+2400</t>
+    <t>-7592</t>
+  </si>
+  <si>
+    <t>-3126</t>
+  </si>
+  <si>
+    <t>-694</t>
+  </si>
+  <si>
+    <t>-541</t>
+  </si>
+  <si>
+    <t>-403</t>
+  </si>
+  <si>
+    <t>-111</t>
   </si>
   <si>
     <t>+∞</t>
@@ -147,46 +138,16 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>78.0%</t>
-  </si>
-  <si>
-    <t>18.4%</t>
-  </si>
-  <si>
-    <t>2.6%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
-  </si>
-  <si>
-    <t>-355</t>
-  </si>
-  <si>
-    <t>+443</t>
-  </si>
-  <si>
-    <t>+3746</t>
-  </si>
-  <si>
-    <t>+9900</t>
-  </si>
-  <si>
-    <t>59.4%</t>
-  </si>
-  <si>
-    <t>40.4%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-146</t>
-  </si>
-  <si>
-    <t>+148</t>
-  </si>
-  <si>
-    <t>+49900</t>
+    <t>89.6%</t>
+  </si>
+  <si>
+    <t>10.4%</t>
+  </si>
+  <si>
+    <t>-862</t>
+  </si>
+  <si>
+    <t>+862</t>
   </si>
 </sst>
 </file>
@@ -572,10 +533,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -586,10 +547,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -597,13 +558,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -611,13 +572,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -625,13 +586,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -639,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -656,10 +617,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -670,10 +631,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -684,10 +645,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -698,10 +659,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -712,10 +673,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -723,13 +684,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -767,10 +728,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -781,108 +742,108 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -893,10 +854,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -907,10 +868,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -918,13 +879,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -962,164 +923,164 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
+++ b/odds/The Mike Daisy Sports IQ League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="27">
   <si>
     <t>Record</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Njigba's in Paris</t>
+  </si>
+  <si>
     <t>Sutton Deez Nuts</t>
   </si>
   <si>
@@ -39,24 +42,21 @@
     <t>Whole lotta gang sheed</t>
   </si>
   <si>
+    <t>Team Daisey</t>
+  </si>
+  <si>
+    <t>Get Money Gang</t>
+  </si>
+  <si>
     <t>Salem County Durag Snatchers</t>
   </si>
   <si>
-    <t>Team Daisey</t>
+    <t xml:space="preserve">Sh1tting on Laporta potty </t>
   </si>
   <si>
     <t>Amon Yo Ass Boy</t>
   </si>
   <si>
-    <t>Njigba's in Paris</t>
-  </si>
-  <si>
-    <t>Get Money Gang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sh1tting on Laporta potty </t>
-  </si>
-  <si>
     <t>Najee Germany</t>
   </si>
   <si>
@@ -66,88 +66,37 @@
     <t>Matt Gay Team</t>
   </si>
   <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>2-11</t>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>98.7%</t>
-  </si>
-  <si>
-    <t>96.9%</t>
-  </si>
-  <si>
-    <t>87.4%</t>
-  </si>
-  <si>
-    <t>84.4%</t>
-  </si>
-  <si>
-    <t>80.1%</t>
-  </si>
-  <si>
-    <t>52.5%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-7592</t>
-  </si>
-  <si>
-    <t>-3126</t>
-  </si>
-  <si>
-    <t>-694</t>
-  </si>
-  <si>
-    <t>-541</t>
-  </si>
-  <si>
-    <t>-403</t>
-  </si>
-  <si>
-    <t>-111</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>89.6%</t>
-  </si>
-  <si>
-    <t>10.4%</t>
-  </si>
-  <si>
-    <t>-862</t>
-  </si>
-  <si>
-    <t>+862</t>
   </si>
 </sst>
 </file>
@@ -533,10 +482,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -547,10 +496,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -561,10 +510,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -575,10 +524,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -586,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -603,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -617,10 +566,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -628,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -642,13 +591,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -656,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -670,13 +619,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -684,13 +633,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -722,72 +671,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -795,13 +744,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -809,55 +758,55 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -865,13 +814,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -879,13 +828,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -920,83 +869,83 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1004,13 +953,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1018,55 +967,55 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1074,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
